--- a/summary.xlsx
+++ b/summary.xlsx
@@ -182,10 +182,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="$ #,##"/>
-  </numFmts>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,30 +190,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA6C1ED"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -224,30 +207,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -547,556 +512,551 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2">
-        <v>8000</v>
+      <c r="C2">
+        <v>7000</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3">
         <v>-120</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4">
         <v>-75</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5">
         <v>-80</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6">
         <v>-10</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7">
         <v>-1000</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8">
         <v>-50</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="2" t="s">
+      <c r="A9" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9">
         <v>-60</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10">
         <v>-150</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="2" t="s">
+      <c r="A11" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11">
         <v>-20</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="2" t="s">
+      <c r="A12" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12">
         <v>-45</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="2" t="s">
+      <c r="A13" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13">
         <v>-70</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="2" t="s">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14">
         <v>-30</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="2" t="s">
+      <c r="A15" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15">
         <v>-200</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="2" t="s">
+      <c r="A16" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16">
         <v>-40</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="2" t="s">
+      <c r="A17" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17">
         <v>-1200</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="2" t="s">
+      <c r="A18" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18">
         <v>-50</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="2" t="s">
+      <c r="A19" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19">
         <v>-15</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="2" t="s">
+      <c r="A20" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20">
         <v>-80</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="2" t="s">
+      <c r="A21" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21">
         <v>-100</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="2" t="s">
+      <c r="A22" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22">
         <v>-50</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="2" t="s">
+      <c r="A23" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23">
         <v>250</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="2" t="s">
+      <c r="A24" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24">
         <v>-20</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="2" t="s">
+      <c r="A25" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25">
         <v>-60</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="2" t="s">
+      <c r="A26" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26">
         <v>-35</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="2" t="s">
+      <c r="A27" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27">
         <v>-250</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="2" t="s">
+      <c r="A28" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28">
         <v>-40</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="2" t="s">
+      <c r="A29" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29">
         <v>-800</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="2" t="s">
+      <c r="A30" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30">
         <v>-50</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="2" t="s">
+      <c r="A31" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31">
         <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="2" t="s">
+      <c r="A32" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32">
         <v>-80</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="2" t="s">
+      <c r="A33" t="s">
         <v>40</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33">
         <v>-20</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="2" t="s">
+      <c r="A34" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34">
         <v>-200</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="2" t="s">
+      <c r="A35" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" t="s">
         <v>42</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35">
         <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="2" t="s">
+      <c r="A36" t="s">
         <v>43</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" t="s">
         <v>19</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36">
         <v>-20</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="2" t="s">
+      <c r="A37" t="s">
         <v>43</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37">
         <v>-50</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="2" t="s">
+      <c r="A38" t="s">
         <v>45</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" t="s">
         <v>22</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38">
         <v>-60</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="2" t="s">
+      <c r="A39" t="s">
         <v>46</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" t="s">
         <v>24</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39">
         <v>-35</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="2" t="s">
+      <c r="A40" t="s">
         <v>46</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" t="s">
         <v>42</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40">
         <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="2" t="s">
+      <c r="A41" t="s">
         <v>47</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" t="s">
         <v>26</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41">
         <v>-40</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="2" t="s">
+      <c r="A42" t="s">
         <v>47</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" t="s">
         <v>5</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42">
         <v>-250</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="2" t="s">
+      <c r="A43" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" t="s">
         <v>12</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43">
         <v>-800</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="2" t="s">
+      <c r="A44" t="s">
         <v>49</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" t="s">
         <v>29</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44">
         <v>-50</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="2" t="s">
+      <c r="A45" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" t="s">
         <v>16</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45">
         <v>-60</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="2" t="s">
+      <c r="A46" t="s">
         <v>50</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" t="s">
         <v>10</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46">
         <v>-20</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="2" t="s">
+      <c r="A47" t="s">
         <v>51</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" t="s">
         <v>17</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47">
         <v>-200</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="2" t="s">
+      <c r="A48" t="s">
         <v>51</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" t="s">
         <v>7</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C48">
         <v>-75</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="2" t="s">
+      <c r="A49" t="s">
         <v>51</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" t="s">
         <v>52</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C49">
         <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="B50" s="1" t="s">
+      <c r="B50" t="s">
         <v>53</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C50">
         <f>SUM(C2:C48)</f>
         <v>0</v>
       </c>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -182,7 +182,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="$ #,##0.00"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,16 +193,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFA7346"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -207,12 +224,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -512,551 +552,554 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="3" width="20.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>7000</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>-120</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>-75</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>-80</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>-10</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <v>-1000</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
         <v>-50</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>-60</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="3">
         <v>-150</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="3">
         <v>-20</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" t="s">
+      <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="3">
         <v>-45</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" t="s">
+      <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="3">
         <v>-70</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" t="s">
+      <c r="A14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="3">
         <v>-30</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" t="s">
+      <c r="A15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="3">
         <v>-200</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" t="s">
+      <c r="A16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="3">
         <v>-40</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" t="s">
+      <c r="A17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="3">
         <v>-1200</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" t="s">
+      <c r="A18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="3">
         <v>-50</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" t="s">
+      <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="3">
         <v>-15</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" t="s">
+      <c r="A20" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="3">
         <v>-80</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" t="s">
+      <c r="A21" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="3">
         <v>-100</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" t="s">
+      <c r="A22" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="3">
         <v>-50</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" t="s">
+      <c r="A23" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="3">
         <v>250</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" t="s">
+      <c r="A24" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="3">
         <v>-20</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" t="s">
+      <c r="A25" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="3">
         <v>-60</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" t="s">
+      <c r="A26" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="3">
         <v>-35</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" t="s">
+      <c r="A27" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="3">
         <v>-250</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" t="s">
+      <c r="A28" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="3">
         <v>-40</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" t="s">
+      <c r="A29" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="3">
         <v>-800</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" t="s">
+      <c r="A30" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="3">
         <v>-50</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" t="s">
+      <c r="A31" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="3">
         <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" t="s">
+      <c r="A32" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="3">
         <v>-80</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" t="s">
+      <c r="A33" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="3">
         <v>-20</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" t="s">
+      <c r="A34" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="3">
         <v>-200</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" t="s">
+      <c r="A35" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="3">
         <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" t="s">
+      <c r="A36" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="3">
         <v>-20</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" t="s">
+      <c r="A37" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="3">
         <v>-50</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" t="s">
+      <c r="A38" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="3">
         <v>-60</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" t="s">
+      <c r="A39" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="3">
         <v>-35</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" t="s">
+      <c r="A40" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="3">
         <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" t="s">
+      <c r="A41" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="3">
         <v>-40</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" t="s">
+      <c r="A42" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="3">
         <v>-250</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" t="s">
+      <c r="A43" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="3">
         <v>-800</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" t="s">
+      <c r="A44" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="3">
         <v>-50</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" t="s">
+      <c r="A45" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="3">
         <v>-60</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" t="s">
+      <c r="A46" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="3">
         <v>-20</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" t="s">
+      <c r="A47" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="3">
         <v>-200</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" t="s">
+      <c r="A48" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="3">
         <v>-75</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" t="s">
+      <c r="A49" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="3">
         <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="B50" t="s">
+      <c r="B50" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="4">
         <f>SUM(C2:C48)</f>
         <v>0</v>
       </c>
